--- a/Tasks/Resources/blank_Report.xlsx
+++ b/Tasks/Resources/blank_Report.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет" sheetId="1" r:id="rId1"/>
+    <sheet name="Шаблон" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,10 +36,10 @@
     <t>Состояние</t>
   </si>
   <si>
-    <t>Дополнительные задачи</t>
-  </si>
-  <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Основные</t>
   </si>
 </sst>
 </file>
@@ -73,15 +73,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,6 +126,19 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -161,19 +180,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,93 +491,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
